--- a/docs/gas_cost.xlsx
+++ b/docs/gas_cost.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coreg\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\shibawars\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6043FC94-EB58-4B40-9643-A81D07D8EF1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B408E9FF-2644-4D35-AC44-DBD26E8E2E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F6CC9A1-85D0-4310-8C39-A42880428377}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>ORIGINAL</t>
   </si>
@@ -42,21 +42,12 @@
     <t>APPROVE</t>
   </si>
   <si>
-    <t>BUY WD</t>
-  </si>
-  <si>
     <t>BUY DK</t>
   </si>
   <si>
     <t>BUY SI</t>
   </si>
   <si>
-    <t>BUY AI</t>
-  </si>
-  <si>
-    <t>BUY SAN</t>
-  </si>
-  <si>
     <t>BUY SP</t>
   </si>
   <si>
@@ -90,9 +81,6 @@
     <t>QUEUE</t>
   </si>
   <si>
-    <t>MATCHMAKE</t>
-  </si>
-  <si>
     <t>FEED</t>
   </si>
   <si>
@@ -112,6 +100,24 @@
   </si>
   <si>
     <t>ADVENTURE</t>
+  </si>
+  <si>
+    <t>NEW WEB3</t>
+  </si>
+  <si>
+    <t>BUY ASI</t>
+  </si>
+  <si>
+    <t>BUY BSI</t>
+  </si>
+  <si>
+    <t>BUY ASP</t>
+  </si>
+  <si>
+    <t>AIRDROP</t>
+  </si>
+  <si>
+    <t>RECYCLE</t>
   </si>
 </sst>
 </file>
@@ -464,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A48842B-981C-4BBA-8CC4-7B5E6128D3D2}">
-  <dimension ref="B2:I24"/>
+  <dimension ref="B2:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="C21:I21"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,32 +481,36 @@
     <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -525,8 +535,11 @@
       <c r="I3">
         <v>44829</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <v>44829</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -551,10 +564,13 @@
       <c r="I4">
         <v>413041</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>410249</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>589867</v>
@@ -577,10 +593,13 @@
       <c r="I5">
         <v>338093</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>335364</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <v>529909</v>
@@ -603,10 +622,13 @@
       <c r="I6">
         <v>338145</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>335416</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <v>533013</v>
@@ -629,10 +651,13 @@
       <c r="I7">
         <v>338197</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>335468</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <v>529870</v>
@@ -655,10 +680,13 @@
       <c r="I8">
         <v>338430</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>335457</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C9">
         <v>490234</v>
@@ -681,10 +709,13 @@
       <c r="I9">
         <v>338301</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <v>335572</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C10">
         <v>432883</v>
@@ -707,10 +738,13 @@
       <c r="I10">
         <v>336064</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <v>318462</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C11">
         <v>143612</v>
@@ -733,10 +767,13 @@
       <c r="I11">
         <v>143319</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <v>136601</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C12">
         <v>363962</v>
@@ -759,10 +796,13 @@
       <c r="I12">
         <v>215197</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <v>196834</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C13">
         <v>66176</v>
@@ -785,10 +825,13 @@
       <c r="I13">
         <v>84634</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <v>71457</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C14">
         <v>1900000</v>
@@ -811,10 +854,13 @@
       <c r="I14">
         <v>282467</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <v>288313</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C15">
         <v>250000</v>
@@ -837,89 +883,101 @@
       <c r="I15">
         <v>136220</v>
       </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <v>107171</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>55726</v>
+      </c>
+      <c r="D16">
+        <v>55726</v>
+      </c>
+      <c r="E16">
+        <v>55726</v>
+      </c>
+      <c r="F16">
+        <v>55726</v>
+      </c>
+      <c r="G16">
+        <v>55726</v>
+      </c>
+      <c r="H16">
+        <v>47973</v>
+      </c>
+      <c r="I16">
+        <v>47973</v>
+      </c>
+      <c r="J16">
+        <v>49013</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>370000</v>
+      </c>
+      <c r="D17">
+        <v>370000</v>
+      </c>
+      <c r="E17">
+        <v>370000</v>
+      </c>
+      <c r="F17">
+        <v>370000</v>
+      </c>
+      <c r="G17">
+        <v>370000</v>
+      </c>
+      <c r="H17">
+        <v>366692</v>
+      </c>
+      <c r="I17">
+        <v>366692</v>
+      </c>
+      <c r="J17">
+        <v>389495</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>18</v>
       </c>
-      <c r="C16">
-        <v>1900000</v>
-      </c>
-      <c r="D16">
-        <v>1900000</v>
-      </c>
-      <c r="E16">
-        <v>1900000</v>
-      </c>
-      <c r="F16">
-        <v>1900000</v>
-      </c>
-      <c r="G16">
-        <v>224262</v>
-      </c>
-      <c r="H16">
-        <v>242025</v>
-      </c>
-      <c r="I16">
-        <v>242025</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="C18">
+        <v>370000</v>
+      </c>
+      <c r="D18">
+        <v>370000</v>
+      </c>
+      <c r="E18">
+        <v>370000</v>
+      </c>
+      <c r="F18">
+        <v>370000</v>
+      </c>
+      <c r="G18">
+        <v>370000</v>
+      </c>
+      <c r="H18">
+        <v>114949</v>
+      </c>
+      <c r="I18">
+        <v>114949</v>
+      </c>
+      <c r="J18">
+        <v>105650</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>19</v>
       </c>
-      <c r="C17">
-        <v>55726</v>
-      </c>
-      <c r="D17">
-        <v>55726</v>
-      </c>
-      <c r="E17">
-        <v>55726</v>
-      </c>
-      <c r="F17">
-        <v>55726</v>
-      </c>
-      <c r="G17">
-        <v>55726</v>
-      </c>
-      <c r="H17">
-        <v>47973</v>
-      </c>
-      <c r="I17">
-        <v>47973</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18">
-        <v>370000</v>
-      </c>
-      <c r="D18">
-        <v>370000</v>
-      </c>
-      <c r="E18">
-        <v>370000</v>
-      </c>
-      <c r="F18">
-        <v>370000</v>
-      </c>
-      <c r="G18">
-        <v>370000</v>
-      </c>
-      <c r="H18">
-        <v>366692</v>
-      </c>
-      <c r="I18">
-        <v>366692</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
       <c r="C19">
         <v>370000</v>
       </c>
@@ -936,152 +994,202 @@
         <v>370000</v>
       </c>
       <c r="H19">
-        <v>114949</v>
+        <v>19151</v>
       </c>
       <c r="I19">
-        <v>114949</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>19151</v>
+      </c>
+      <c r="J19">
+        <v>22364</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C20">
-        <v>370000</v>
+        <v>147290</v>
       </c>
       <c r="D20">
-        <v>370000</v>
+        <v>147290</v>
       </c>
       <c r="E20">
-        <v>370000</v>
+        <v>147290</v>
       </c>
       <c r="F20">
-        <v>370000</v>
+        <v>147290</v>
       </c>
       <c r="G20">
-        <v>370000</v>
+        <v>147290</v>
       </c>
       <c r="H20">
-        <v>19151</v>
+        <v>147290</v>
       </c>
       <c r="I20">
-        <v>19151</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>147290</v>
+      </c>
+      <c r="J20">
+        <v>135693</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C21">
-        <v>147290</v>
+        <v>55478</v>
       </c>
       <c r="D21">
-        <v>147290</v>
+        <v>55478</v>
       </c>
       <c r="E21">
-        <v>147290</v>
+        <v>55478</v>
       </c>
       <c r="F21">
-        <v>147290</v>
+        <v>55478</v>
       </c>
       <c r="G21">
-        <v>147290</v>
+        <v>55478</v>
       </c>
       <c r="H21">
-        <v>147290</v>
+        <v>55478</v>
       </c>
       <c r="I21">
-        <v>147290</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>55478</v>
+      </c>
+      <c r="J21">
+        <v>55478</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
       <c r="C22">
-        <f t="shared" ref="C22:H22" si="0">SUM(C3:C21)</f>
-        <v>9712704</v>
+        <v>307725</v>
       </c>
       <c r="D22">
+        <v>307725</v>
+      </c>
+      <c r="E22">
+        <v>307725</v>
+      </c>
+      <c r="F22">
+        <v>307725</v>
+      </c>
+      <c r="G22">
+        <v>307725</v>
+      </c>
+      <c r="H22">
+        <v>307725</v>
+      </c>
+      <c r="I22">
+        <v>307725</v>
+      </c>
+      <c r="J22">
+        <v>307725</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <f>SUM(C3:C22)</f>
+        <v>8175907</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ref="D23:J23" si="0">SUM(D3:D22)</f>
+        <v>8190045</v>
+      </c>
+      <c r="E23">
         <f t="shared" si="0"/>
-        <v>9726842</v>
-      </c>
-      <c r="E22">
+        <v>8235669</v>
+      </c>
+      <c r="F23">
         <f t="shared" si="0"/>
-        <v>9772466</v>
-      </c>
-      <c r="F22">
+        <v>6712715</v>
+      </c>
+      <c r="G23">
         <f t="shared" si="0"/>
-        <v>8249512</v>
-      </c>
-      <c r="G22">
+        <v>4907925</v>
+      </c>
+      <c r="H23">
         <f t="shared" si="0"/>
-        <v>4768984</v>
-      </c>
-      <c r="H22">
+        <v>4405749</v>
+      </c>
+      <c r="I23">
         <f t="shared" si="0"/>
-        <v>4284571</v>
-      </c>
-      <c r="I22">
-        <f>SUM(I3:I21)</f>
-        <v>4285017</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C23">
-        <f t="shared" ref="C23:I23" si="1">C22/1000000</f>
-        <v>9.7127040000000004</v>
-      </c>
-      <c r="D23">
+        <v>4406195</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>4316611</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <f t="shared" ref="C24:J24" si="1">C23/1000000</f>
+        <v>8.1759070000000005</v>
+      </c>
+      <c r="D24">
         <f t="shared" si="1"/>
-        <v>9.7268419999999995</v>
-      </c>
-      <c r="E23">
+        <v>8.1900449999999996</v>
+      </c>
+      <c r="E24">
         <f t="shared" si="1"/>
-        <v>9.7724659999999997</v>
-      </c>
-      <c r="F23">
+        <v>8.2356689999999997</v>
+      </c>
+      <c r="F24">
         <f t="shared" si="1"/>
-        <v>8.2495119999999993</v>
-      </c>
-      <c r="G23">
+        <v>6.7127150000000002</v>
+      </c>
+      <c r="G24">
         <f t="shared" si="1"/>
-        <v>4.7689839999999997</v>
-      </c>
-      <c r="H23">
+        <v>4.9079249999999996</v>
+      </c>
+      <c r="H24">
         <f t="shared" si="1"/>
-        <v>4.2845709999999997</v>
-      </c>
-      <c r="I23">
+        <v>4.4057490000000001</v>
+      </c>
+      <c r="I24">
         <f t="shared" si="1"/>
-        <v>4.2850169999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C24">
-        <f>C22/$C$22</f>
+        <v>4.4061950000000003</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>4.316611</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <f>C23/$C$23</f>
         <v>1</v>
       </c>
-      <c r="D24">
-        <f>D22/$C$22</f>
-        <v>1.0014556193620232</v>
-      </c>
-      <c r="E24">
-        <f>E22/$C$22</f>
-        <v>1.0061529724369238</v>
-      </c>
-      <c r="F24">
-        <f>F22/$C$22</f>
-        <v>0.84935276520318137</v>
-      </c>
-      <c r="G24">
-        <f>G22/F22</f>
-        <v>0.57809286173533658</v>
-      </c>
-      <c r="H24">
-        <f>H22/G22</f>
-        <v>0.89842427653353418</v>
-      </c>
-      <c r="I24">
-        <f>I22/H22</f>
-        <v>1.0001040944355923</v>
+      <c r="D25">
+        <f>D23/$C$23</f>
+        <v>1.0017292271059346</v>
+      </c>
+      <c r="E25">
+        <f>E23/$C$23</f>
+        <v>1.0073095254141222</v>
+      </c>
+      <c r="F25">
+        <f>F23/$C$23</f>
+        <v>0.82103612479936472</v>
+      </c>
+      <c r="G25">
+        <f>G23/F23</f>
+        <v>0.73113859295381978</v>
+      </c>
+      <c r="H25">
+        <f>H23/G23</f>
+        <v>0.89768058802854567</v>
+      </c>
+      <c r="I25">
+        <f>I23/H23</f>
+        <v>1.0001012313683779</v>
+      </c>
+      <c r="J25">
+        <f>J23/I23</f>
+        <v>0.97966862565093016</v>
       </c>
     </row>
   </sheetData>
